--- a/클리니아/클리니아_수치.xlsx
+++ b/클리니아/클리니아_수치.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\클리니아\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\문서\GitHub\smallprecious\클리니아\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A56387-D52E-4B75-894B-7CC5315031E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1815" windowWidth="33015" windowHeight="15480" activeTab="1" xr2:uid="{FAEAEFBB-69E9-4AB8-BAA4-A44E5C331AF7}"/>
+    <workbookView xWindow="3540" yWindow="1815" windowWidth="33015" windowHeight="15480" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="계산식" sheetId="1" r:id="rId1"/>
-    <sheet name="스탯" sheetId="8" r:id="rId2"/>
-    <sheet name="무기" sheetId="2" r:id="rId3"/>
-    <sheet name="머리" sheetId="3" r:id="rId4"/>
-    <sheet name="상의" sheetId="4" r:id="rId5"/>
-    <sheet name="하의" sheetId="5" r:id="rId6"/>
-    <sheet name="장갑" sheetId="6" r:id="rId7"/>
-    <sheet name="신발" sheetId="7" r:id="rId8"/>
+    <sheet name="캐릭터 스탯" sheetId="8" r:id="rId2"/>
+    <sheet name="무기(빗자루)" sheetId="2" r:id="rId3"/>
+    <sheet name="보조무기" sheetId="15" r:id="rId4"/>
+    <sheet name="모자" sheetId="16" r:id="rId5"/>
+    <sheet name="상의" sheetId="17" r:id="rId6"/>
+    <sheet name="하의" sheetId="18" r:id="rId7"/>
+    <sheet name="장갑" sheetId="19" r:id="rId8"/>
+    <sheet name="신발" sheetId="20" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="106">
   <si>
     <t>치명타발생시</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,22 +95,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cc기지속시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>재사용대기시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> = {(무기공격력+보조무기공격력) + 추가공격력} x {1 + (주스탯x0.01)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> = 기본시속시간 x {1 - (강인함 x 0.01)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>재사용대기시간 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,22 +111,368 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주 스탯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이동속도 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기를 따라감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨당 성장스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업시 스탯 포인트를 1씩얻어서 포인트에 투자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정복자 스탯포인트 1당 스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1레벨 바닐라 스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30레벨 바닐라 스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1% max 10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2% max 20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1% max 10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격력 +n% </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타피해 +n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 +n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 공격횟수 n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 공격력 n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~이하의 적에게
+주는 피해 n%증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적중률 +n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격당 체력회복 +n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리트~보스등급
+10~20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10~15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200~1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10~15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10~20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40~50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>650~750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> = {(무기공격력+보조무기공격력) + 버프공격력} x {1 + (주스탯x0.01)} x {1+(공격력증가n%x0.01)}+ 추가공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> = [1 - {1 - (0.01 x 옵션1)} x {1 - (0.01 x 옵션2)} x…....] x 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc기 지속시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 기본지속시간 x {1 - (강인함 x 0.01)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어지러움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무딘칼날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패파괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암흑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬확률 -n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적중률 -n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 -n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 -n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도+공격속도 -n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터주변 반경 n px 이외의 부분 안개처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존스탯에 가감연산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존스탯에 가감연산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존스탯에 가감연산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존스탯에 가감연산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 모든장비의 방어력 합 x {1 + (방어력 +n% x 0.01)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해증가 +n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만렙기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10~20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10~20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타확률 +n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용대기시간 n% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유자원 소모량 n% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 청량감 +n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게서 얻는 경험치 +n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게서 얻는 클린 +n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20~40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20~40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>650~750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 +n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주스탯 +n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 +n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000~4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처치시 체력회복 +n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000~20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율 n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력 +n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 생명력 재생 +n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강인함 +n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30~40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는피해감소 n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 옵션은 min~max 사이의 임의의 정수로 정해진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10~15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10~15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,20 +490,53 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -178,9 +545,54 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,27 +907,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C4377C-A303-4072-99D6-E67E0CD115DB}">
-  <dimension ref="B2:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -523,7 +941,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -531,7 +950,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -539,7 +959,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -547,47 +968,154 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A20:A25"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -595,111 +1123,2164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE1C0AD-5BA1-4B48-94CF-68F1DF9BF5E6}">
-  <dimension ref="B2:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="3.375" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="13">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13">
+        <v>4</v>
+      </c>
+      <c r="E3" s="13">
+        <v>120</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13">
+        <v>50</v>
+      </c>
+      <c r="D4" s="13">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13">
+        <v>300</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14">
+        <v>2</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C10" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>22</v>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29E3131-C3D1-427E-81C4-3DE25014C0A0}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B32"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00A11E4-ADB8-453E-A54E-06B5EDD6FD01}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B32"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E174DA-D043-481E-BA17-3CEE29058336}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B32"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A49D2D-5291-46D3-9295-00089AC4D025}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B32"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0557E92D-E285-4BB7-BD1A-69B75AE411F2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B32"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE396AA-86F0-4D3D-B42A-F880BB73415D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B32"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/클리니아/클리니아_수치.xlsx
+++ b/클리니아/클리니아_수치.xlsx
@@ -1,47 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\문서\GitHub\smallprecious\클리니아\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\클리니아\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC078D-06EA-4228-81A7-91C8EA9E8757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1815" windowWidth="33015" windowHeight="15480" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계산식" sheetId="1" r:id="rId1"/>
     <sheet name="캐릭터 스탯" sheetId="8" r:id="rId2"/>
-    <sheet name="무기(빗자루)" sheetId="2" r:id="rId3"/>
-    <sheet name="보조무기" sheetId="15" r:id="rId4"/>
-    <sheet name="모자" sheetId="16" r:id="rId5"/>
-    <sheet name="상의" sheetId="17" r:id="rId6"/>
-    <sheet name="하의" sheetId="18" r:id="rId7"/>
-    <sheet name="장갑" sheetId="19" r:id="rId8"/>
-    <sheet name="신발" sheetId="20" r:id="rId9"/>
+    <sheet name="아이템옵션" sheetId="21" r:id="rId3"/>
+    <sheet name="무기(빗자루)" sheetId="2" r:id="rId4"/>
+    <sheet name="보조무기" sheetId="15" r:id="rId5"/>
+    <sheet name="모자" sheetId="16" r:id="rId6"/>
+    <sheet name="상의" sheetId="17" r:id="rId7"/>
+    <sheet name="하의" sheetId="18" r:id="rId8"/>
+    <sheet name="장갑" sheetId="19" r:id="rId9"/>
+    <sheet name="신발" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="110">
   <si>
     <t>치명타발생시</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,13 +459,29 @@
   </si>
   <si>
     <t>10~15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- 굉장히 당하면 거의 즉사의 위기를 넘나드는 효과가 될거같은 기분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 몸체는 그냥 옷걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 장비에 붙은 스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">왼쪽에서 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -545,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,17 +570,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -593,6 +596,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,11 +919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -921,8 +933,8 @@
     <col min="4" max="4" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B2" t="s">
@@ -932,8 +944,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -941,8 +953,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -950,8 +962,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -959,8 +971,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -968,11 +980,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -980,8 +992,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1001,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -998,8 +1010,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
         <v>55</v>
       </c>
@@ -1007,114 +1019,120 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
         <v>57</v>
       </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A19:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1122,12 +1140,293 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="15"/>
+      <c r="C5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+      <c r="C9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+      <c r="C10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
+      <c r="C16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
+      <c r="C17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="15"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
+      <c r="C19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
+      <c r="C20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+      <c r="C21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
+      <c r="C22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="C23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="15"/>
+      <c r="C24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
+      <c r="C26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="15"/>
+      <c r="C27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="15"/>
+      <c r="C28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="15"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="15"/>
+      <c r="C30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="15"/>
+      <c r="C31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="15"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1172,17 +1471,15 @@
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>24</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>4</v>
       </c>
-      <c r="E3" s="13">
-        <v>120</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1191,17 +1488,15 @@
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>50</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>10</v>
       </c>
-      <c r="E4" s="13">
-        <v>300</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1210,45 +1505,45 @@
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>0</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11">
         <v>0</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11">
         <v>0</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>0.1</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12">
         <v>0.1</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1257,15 +1552,15 @@
       <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12">
         <v>2</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1274,15 +1569,15 @@
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>1</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1291,25 +1586,35 @@
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="15" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="13" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1320,11 +1625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE923CA5-0C1B-476B-8481-E2CC0ADC5206}">
   <dimension ref="B1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1332,6 +1637,7 @@
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="3" max="3" width="25.25" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
@@ -1340,255 +1646,255 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>90</v>
+      <c r="D6" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>80</v>
+      <c r="D8" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>48</v>
+      <c r="D10" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>105</v>
+      <c r="D15" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>104</v>
+      <c r="D17" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="11"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>78</v>
+      <c r="D28" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>89</v>
+      <c r="D31" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1601,7 +1907,289 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:D32"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="15"/>
+      <c r="C5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+      <c r="C9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+      <c r="C10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
+      <c r="C16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
+      <c r="C17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="15"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
+      <c r="C19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
+      <c r="C20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+      <c r="C21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
+      <c r="C22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="C23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="15"/>
+      <c r="C24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
+      <c r="C26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="15"/>
+      <c r="C27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="15"/>
+      <c r="C28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="15"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="15"/>
+      <c r="C30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="15"/>
+      <c r="C31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="15"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1621,255 +2209,255 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1881,8 +2469,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1902,255 +2490,255 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2162,8 +2750,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2183,255 +2771,255 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2443,8 +3031,289 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="15"/>
+      <c r="C5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+      <c r="C9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+      <c r="C10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
+      <c r="C16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
+      <c r="C17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="15"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
+      <c r="C19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
+      <c r="C20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+      <c r="C21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
+      <c r="C22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="C23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="15"/>
+      <c r="C24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
+      <c r="C26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="15"/>
+      <c r="C27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="15"/>
+      <c r="C28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="15"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="15"/>
+      <c r="C30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="15"/>
+      <c r="C31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="15"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2464,817 +3333,255 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B32"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B32"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
